--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_VNPT.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_VNPT.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Thiết bị có dấu hiệu oxi hóa mạch, module sim nóng</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn hỏng MCU</t>
   </si>
 </sst>
 </file>
@@ -719,6 +722,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -736,30 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,39 +1106,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1180,58 +1183,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1256,23 +1259,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,7 +1301,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1329,7 +1332,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1358,7 +1361,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1390,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1416,7 +1419,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1445,7 +1448,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1477,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1505,7 +1508,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1534,7 +1537,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1563,7 +1566,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1595,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3308,13 +3311,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3326,6 +3322,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3369,39 +3372,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3446,58 +3449,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3522,23 +3525,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3564,7 +3567,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3595,7 +3598,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3624,7 +3627,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3653,7 +3656,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3682,7 +3685,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3711,7 +3714,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3740,7 +3743,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3771,7 +3774,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3800,7 +3803,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3829,7 +3832,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3858,7 +3861,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5574,6 +5577,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5585,13 +5595,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5635,39 +5638,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5712,58 +5715,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5788,23 +5791,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5830,7 +5833,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5861,7 +5864,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5890,7 +5893,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5919,7 +5922,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5948,7 +5951,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5977,7 +5980,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6006,7 +6009,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6037,7 +6040,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6066,7 +6069,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6095,7 +6098,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6124,7 +6127,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7840,6 +7843,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7851,13 +7861,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7901,39 +7904,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7978,58 +7981,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8054,23 +8057,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8096,7 +8099,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8127,7 +8130,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8156,7 +8159,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8185,7 +8188,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8214,7 +8217,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8243,7 +8246,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8272,7 +8275,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8303,7 +8306,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8332,7 +8335,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8361,7 +8364,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8390,7 +8393,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10106,6 +10109,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10117,13 +10127,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10167,39 +10170,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10244,58 +10247,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10320,23 +10323,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10362,7 +10365,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10393,7 +10396,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10422,7 +10425,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10451,7 +10454,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10480,7 +10483,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10509,7 +10512,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10538,7 +10541,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10569,7 +10572,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10598,7 +10601,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10627,7 +10630,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10656,7 +10659,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12372,6 +12375,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12383,13 +12393,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12401,7 +12404,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12433,41 +12436,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12512,58 +12515,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12588,23 +12591,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12658,7 +12661,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12670,15 +12673,29 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="61">
+        <v>44819</v>
+      </c>
       <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183034656764</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="I7" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>72</v>
+      </c>
       <c r="K7" s="65"/>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
@@ -12689,7 +12706,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12718,7 +12735,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12747,7 +12764,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12776,7 +12793,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12805,7 +12822,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12834,7 +12851,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12865,7 +12882,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12894,7 +12911,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12923,7 +12940,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12952,7 +12969,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14668,6 +14685,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14679,13 +14703,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14729,39 +14746,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14806,58 +14823,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14882,23 +14899,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14924,7 +14941,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14955,7 +14972,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14984,7 +15001,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15013,7 +15030,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15042,7 +15059,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15071,7 +15088,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15100,7 +15117,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15131,7 +15148,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15160,7 +15177,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15189,7 +15206,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15218,7 +15235,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16934,6 +16951,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16945,13 +16969,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16995,39 +17012,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17072,58 +17089,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17148,23 +17165,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17190,7 +17207,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17221,7 +17238,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17250,7 +17267,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17279,7 +17296,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17308,7 +17325,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17337,7 +17354,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17366,7 +17383,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17397,7 +17414,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17426,7 +17443,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17455,7 +17472,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17484,7 +17501,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19200,6 +19217,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19211,13 +19235,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19261,39 +19278,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19338,58 +19355,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19414,23 +19431,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19456,7 +19473,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19487,7 +19504,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19516,7 +19533,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19545,7 +19562,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19574,7 +19591,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19603,7 +19620,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19632,7 +19649,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19663,7 +19680,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19692,7 +19709,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19721,7 +19738,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19750,7 +19767,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20981,13 +20998,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20999,6 +21009,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_VNPT.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_VNPT.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>Thiết bị chập nguồn hỏng MCU</t>
+  </si>
+  <si>
+    <t>20211907410135.</t>
+  </si>
+  <si>
+    <t>20211907410435.</t>
+  </si>
+  <si>
+    <t>Thay MCU,</t>
+  </si>
+  <si>
+    <t>Thay module SIM868</t>
   </si>
 </sst>
 </file>
@@ -722,30 +734,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,6 +751,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1106,39 +1118,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1183,58 +1195,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1259,23 +1271,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,7 +1313,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1332,7 +1344,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1361,7 +1373,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1402,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1419,7 +1431,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1460,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1477,7 +1489,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1508,7 +1520,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1549,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1578,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +1607,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3311,6 +3323,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3322,13 +3341,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3372,39 +3384,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3449,58 +3461,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3525,23 +3537,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,7 +3579,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3598,7 +3610,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3627,7 +3639,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3656,7 +3668,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3685,7 +3697,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3714,7 +3726,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3743,7 +3755,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3774,7 +3786,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3803,7 +3815,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +3844,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3861,7 +3873,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5577,13 +5589,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5595,6 +5600,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5638,39 +5650,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5715,58 +5727,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5791,23 +5803,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5833,7 +5845,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5864,7 +5876,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5893,7 +5905,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5922,7 +5934,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5951,7 +5963,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5980,7 +5992,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6009,7 +6021,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6040,7 +6052,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6069,7 +6081,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6098,7 +6110,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6127,7 +6139,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7843,13 +7855,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7861,6 +7866,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7904,39 +7916,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7981,58 +7993,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8057,23 +8069,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8099,7 +8111,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8130,7 +8142,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8159,7 +8171,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8188,7 +8200,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8217,7 +8229,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8246,7 +8258,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8275,7 +8287,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8306,7 +8318,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8335,7 +8347,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8364,7 +8376,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8393,7 +8405,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10109,13 +10121,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10127,6 +10132,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10170,39 +10182,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10247,58 +10259,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10323,23 +10335,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10365,7 +10377,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10396,7 +10408,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10425,7 +10437,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10454,7 +10466,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10483,7 +10495,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10512,7 +10524,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10541,7 +10553,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10572,7 +10584,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10601,7 +10613,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10630,7 +10642,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10659,7 +10671,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12375,13 +12387,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12393,6 +12398,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12403,8 +12415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12436,41 +12448,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12515,58 +12527,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12591,23 +12603,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12617,7 +12629,9 @@
       <c r="B6" s="61">
         <v>44817</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44837</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -12630,7 +12644,9 @@
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>74</v>
+      </c>
       <c r="I6" s="63" t="s">
         <v>67</v>
       </c>
@@ -12644,9 +12660,11 @@
         <v>68</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="64"/>
+        <v>76</v>
+      </c>
+      <c r="N6" s="64">
+        <v>350000</v>
+      </c>
       <c r="O6" s="64" t="s">
         <v>69</v>
       </c>
@@ -12654,14 +12672,14 @@
         <v>70</v>
       </c>
       <c r="Q6" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12676,7 +12694,9 @@
       <c r="B7" s="61">
         <v>44819</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44837</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -12689,7 +12709,9 @@
       <c r="G7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="62" t="s">
+        <v>73</v>
+      </c>
       <c r="I7" s="63" t="s">
         <v>67</v>
       </c>
@@ -12697,16 +12719,30 @@
         <v>72</v>
       </c>
       <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="L7" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="64">
+        <v>240000</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12735,7 +12771,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12764,7 +12800,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12793,7 +12829,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12822,7 +12858,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12851,7 +12887,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12882,7 +12918,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12911,7 +12947,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12940,7 +12976,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12969,7 +13005,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13087,7 +13123,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13119,7 +13155,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13300,7 +13336,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -13364,7 +13400,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -13556,7 +13592,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13620,7 +13656,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14685,13 +14721,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14703,6 +14732,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14746,39 +14782,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14823,58 +14859,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14899,23 +14935,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14941,7 +14977,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14972,7 +15008,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15001,7 +15037,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15030,7 +15066,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15059,7 +15095,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15088,7 +15124,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15117,7 +15153,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15148,7 +15184,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15177,7 +15213,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15206,7 +15242,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15235,7 +15271,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16951,13 +16987,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16969,6 +16998,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17012,39 +17048,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17089,58 +17125,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17165,23 +17201,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17207,7 +17243,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17238,7 +17274,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17267,7 +17303,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17296,7 +17332,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17325,7 +17361,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17354,7 +17390,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17383,7 +17419,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17414,7 +17450,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17443,7 +17479,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17472,7 +17508,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17501,7 +17537,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19217,13 +19253,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19235,6 +19264,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19278,39 +19314,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19355,58 +19391,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19431,23 +19467,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19473,7 +19509,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19504,7 +19540,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19533,7 +19569,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19562,7 +19598,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19591,7 +19627,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19620,7 +19656,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19649,7 +19685,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19680,7 +19716,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19709,7 +19745,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19738,7 +19774,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19767,7 +19803,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20998,6 +21034,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21009,13 +21052,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
